--- a/outputs-HGR-r202-archive/f__Bacteroidaceae.xlsx
+++ b/outputs-HGR-r202-archive/f__Bacteroidaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -743,103 +743,103 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27127.fa</t>
+          <t>even_MAG-GUT31343.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0146213727352443</v>
+        <v>1.26849401870854e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01854753448287099</v>
+        <v>0.0003904800250785401</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06605222433278672</v>
+        <v>2.234183633565842e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01202934423225162</v>
+        <v>0.000515576169462649</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1560963623912761</v>
+        <v>2.220217307218118e-14</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0178183860430562</v>
+        <v>1.487725132168467e-07</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01250660551200176</v>
+        <v>0.005414684231113093</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04911609455672482</v>
+        <v>0.9919121230336537</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5856421729161028</v>
+        <v>0.000326103805629741</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01155622074738625</v>
+        <v>5.7342358198957e-10</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01506880430987794</v>
+        <v>2.732512481979133e-10</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04094487774042039</v>
+        <v>0.001417272785497649</v>
       </c>
       <c r="N6" t="n">
-        <v>0.5856421729161028</v>
+        <v>0.9919121230336537</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>g__Prevotellamassilia</t>
+          <t>g__Prevotella</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>g__Prevotellamassilia(reject)</t>
+          <t>g__Prevotella</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31343.fa</t>
+          <t>even_MAG-GUT32351.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.26849401870854e-06</v>
+        <v>1.630966392083966e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0003904800250785401</v>
+        <v>0.009666433965984664</v>
       </c>
       <c r="D7" t="n">
-        <v>2.234183633565842e-05</v>
+        <v>1.946071922559507e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>0.000515576169462649</v>
+        <v>0.005053994388228584</v>
       </c>
       <c r="F7" t="n">
-        <v>2.220217307218118e-14</v>
+        <v>2.220536552005553e-14</v>
       </c>
       <c r="G7" t="n">
-        <v>1.487725132168467e-07</v>
+        <v>2.851582343668949e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.005414684231113093</v>
+        <v>0.008499547328399915</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9919121230336537</v>
+        <v>0.9552276171474474</v>
       </c>
       <c r="J7" t="n">
-        <v>0.000326103805629741</v>
+        <v>0.01262919124131499</v>
       </c>
       <c r="K7" t="n">
-        <v>5.7342358198957e-10</v>
+        <v>5.88089366494086e-07</v>
       </c>
       <c r="L7" t="n">
-        <v>2.732512481979133e-10</v>
+        <v>1.2678484984837e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001417272785497649</v>
+        <v>0.008871327388760871</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9919121230336537</v>
+        <v>0.9552276171474474</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -855,47 +855,47 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32351.fa</t>
+          <t>even_MAG-GUT37917.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.630966392083966e-05</v>
+        <v>2.142745680398593e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>0.009666433965984664</v>
+        <v>0.00244691721686942</v>
       </c>
       <c r="D8" t="n">
-        <v>1.946071922559507e-05</v>
+        <v>0.0001821837330553088</v>
       </c>
       <c r="E8" t="n">
-        <v>0.005053994388228584</v>
+        <v>0.001247623624435394</v>
       </c>
       <c r="F8" t="n">
-        <v>2.220536552005553e-14</v>
+        <v>2.220834746692727e-14</v>
       </c>
       <c r="G8" t="n">
-        <v>2.851582343668949e-06</v>
+        <v>8.988159400053747e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.008499547328399915</v>
+        <v>0.02338244455769855</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9552276171474474</v>
+        <v>0.9535469509485215</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01262919124131499</v>
+        <v>0.0003696425556075512</v>
       </c>
       <c r="K8" t="n">
-        <v>5.88089366494086e-07</v>
+        <v>3.931318036357358e-06</v>
       </c>
       <c r="L8" t="n">
-        <v>1.2678484984837e-05</v>
+        <v>0.0004093398561412588</v>
       </c>
       <c r="M8" t="n">
-        <v>0.008871327388760871</v>
+        <v>0.01838055057340849</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9552276171474474</v>
+        <v>0.9535469509485215</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -911,47 +911,47 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37917.fa</t>
+          <t>even_MAG-GUT42852.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.142745680398593e-05</v>
+        <v>2.583289888711166e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00244691721686942</v>
+        <v>0.02741570702171794</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0001821837330553088</v>
+        <v>0.0002607938661573641</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001247623624435394</v>
+        <v>0.004343056866077143</v>
       </c>
       <c r="F9" t="n">
-        <v>2.220834746692727e-14</v>
+        <v>2.227691563207741e-14</v>
       </c>
       <c r="G9" t="n">
-        <v>8.988159400053747e-06</v>
+        <v>1.309401688798605e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02338244455769855</v>
+        <v>0.001062657700976825</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9535469509485215</v>
+        <v>0.7080425918063806</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0003696425556075512</v>
+        <v>0.2556576915860525</v>
       </c>
       <c r="K9" t="n">
-        <v>3.931318036357358e-06</v>
+        <v>3.28859482297423e-06</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0004093398561412588</v>
+        <v>2.803758603146689e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01838055057340849</v>
+        <v>0.003170497664984145</v>
       </c>
       <c r="N9" t="n">
-        <v>0.9535469509485215</v>
+        <v>0.7080425918063806</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -960,110 +960,110 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>g__Prevotella</t>
+          <t>g__Prevotella(reject)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT41097.fa</t>
+          <t>even_MAG-GUT42865.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.398293912755279e-05</v>
+        <v>0.01240907378295704</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06489584472027678</v>
+        <v>0.07599235819164389</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001644571596571951</v>
+        <v>0.01247509349746925</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0002572927578508615</v>
+        <v>0.01519690161058547</v>
       </c>
       <c r="F10" t="n">
-        <v>2.220231528020059e-14</v>
+        <v>0.1562140455663513</v>
       </c>
       <c r="G10" t="n">
-        <v>1.191727759086429e-05</v>
+        <v>0.01247509658367157</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008378727436933807</v>
+        <v>0.6334023689440911</v>
       </c>
       <c r="I10" t="n">
-        <v>0.005098074668057335</v>
+        <v>0.02669918464783214</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9218573966724258</v>
+        <v>0.01645740534032006</v>
       </c>
       <c r="K10" t="n">
-        <v>1.880079969090613e-05</v>
+        <v>0.01238186175436837</v>
       </c>
       <c r="L10" t="n">
-        <v>5.273412892712173e-05</v>
+        <v>0.01238184739816349</v>
       </c>
       <c r="M10" t="n">
-        <v>0.005271511695765112</v>
+        <v>0.01391476268254628</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9218573966724258</v>
+        <v>0.6334023689440911</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>g__Prevotellamassilia</t>
+          <t>g__Phocaeicola</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>g__Prevotellamassilia</t>
+          <t>g__Phocaeicola</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42852.fa</t>
+          <t>even_MAG-GUT43378.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.583289888711166e-06</v>
+        <v>5.883666311459455e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02741570702171794</v>
+        <v>0.02861256239552309</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0002607938661573641</v>
+        <v>1.344522342854012e-05</v>
       </c>
       <c r="E11" t="n">
-        <v>0.004343056866077143</v>
+        <v>0.001647462868748472</v>
       </c>
       <c r="F11" t="n">
-        <v>2.227691563207741e-14</v>
+        <v>2.220809629123999e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>1.309401688798605e-05</v>
+        <v>2.072589017138812e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001062657700976825</v>
+        <v>0.01163185588257379</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7080425918063806</v>
+        <v>0.9490708531727708</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2556576915860525</v>
+        <v>0.004396467025597504</v>
       </c>
       <c r="K11" t="n">
-        <v>3.28859482297423e-06</v>
+        <v>6.067557507365926e-07</v>
       </c>
       <c r="L11" t="n">
-        <v>2.803758603146689e-05</v>
+        <v>1.411395199862711e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003170497664984145</v>
+        <v>0.004551723471454444</v>
       </c>
       <c r="N11" t="n">
-        <v>0.7080425918063806</v>
+        <v>0.9490708531727708</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1072,166 +1072,166 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>g__Prevotella(reject)</t>
+          <t>g__Prevotella</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42865.fa</t>
+          <t>even_MAG-GUT4634.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01240907378295704</v>
+        <v>4.235584293408339e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07599235819164389</v>
+        <v>0.02545856909260366</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01247509349746925</v>
+        <v>0.00354830409732399</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01519690161058547</v>
+        <v>0.001113278605501937</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1562140455663513</v>
+        <v>2.221147633836861e-14</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01247509658367157</v>
+        <v>5.915695403557982e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6334023689440911</v>
+        <v>0.003325158296980558</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02669918464783214</v>
+        <v>0.01414292982267424</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01645740534032006</v>
+        <v>0.9509037700011296</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01238186175436837</v>
+        <v>5.146384473895104e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01238184739816349</v>
+        <v>0.0005637839873144682</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01391476268254628</v>
+        <v>0.0008293497133814511</v>
       </c>
       <c r="N12" t="n">
-        <v>0.6334023689440911</v>
+        <v>0.9509037700011296</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>g__Phocaeicola</t>
+          <t>g__Prevotellamassilia</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>g__Phocaeicola</t>
+          <t>g__Prevotellamassilia</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43377.fa</t>
+          <t>even_MAG-GUT4651.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01447907567390531</v>
+        <v>7.891602527880939e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05890479383556795</v>
+        <v>0.01713157191373513</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03601473285489895</v>
+        <v>0.001908696972799006</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01358674422359024</v>
+        <v>0.0005715053882032207</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3577152197730627</v>
+        <v>2.221248572859986e-14</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02098707035221213</v>
+        <v>9.539739505294178e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01370058891450645</v>
+        <v>0.000471677003713717</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04444171883453086</v>
+        <v>0.0282888583663271</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3847560798331123</v>
+        <v>0.9481721241726622</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01281747348581372</v>
+        <v>4.213439385401213e-06</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01433920614719007</v>
+        <v>0.0008144167748887588</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0282572960716092</v>
+        <v>0.002533646970682562</v>
       </c>
       <c r="N13" t="n">
-        <v>0.3847560798331123</v>
+        <v>0.9481721241726622</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>g__F0040</t>
+          <t>g__Prevotellamassilia</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>g__F0040</t>
+          <t>g__Prevotellamassilia</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43378.fa</t>
+          <t>even_MAG-GUT50483.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.883666311459455e-05</v>
+        <v>0.0001881662712895842</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02861256239552309</v>
+        <v>0.04616494412989321</v>
       </c>
       <c r="D14" t="n">
-        <v>1.344522342854012e-05</v>
+        <v>0.0002011256662533338</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001647462868748472</v>
+        <v>0.007120079625178061</v>
       </c>
       <c r="F14" t="n">
-        <v>2.220809629123999e-14</v>
+        <v>3.710584659484148e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>2.072589017138812e-06</v>
+        <v>2.506357939400195e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01163185588257379</v>
+        <v>0.02625340172125082</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9490708531727708</v>
+        <v>0.8566400956977521</v>
       </c>
       <c r="J14" t="n">
-        <v>0.004396467025597504</v>
+        <v>0.04549956790103245</v>
       </c>
       <c r="K14" t="n">
-        <v>6.067557507365926e-07</v>
+        <v>2.959714007040511e-06</v>
       </c>
       <c r="L14" t="n">
-        <v>1.411395199862711e-05</v>
+        <v>0.0004779339405231401</v>
       </c>
       <c r="M14" t="n">
-        <v>0.004551723471454444</v>
+        <v>0.01742666175338924</v>
       </c>
       <c r="N14" t="n">
-        <v>0.9490708531727708</v>
+        <v>0.8566400956977521</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1247,159 +1247,159 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4634.fa</t>
+          <t>even_MAG-GUT51557.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.235584293408339e-06</v>
+        <v>2.011172622024559e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02545856909260366</v>
+        <v>0.0006202409463136535</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00354830409732399</v>
+        <v>0.000877459003814334</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001113278605501937</v>
+        <v>0.001536905051695777</v>
       </c>
       <c r="F15" t="n">
-        <v>2.221147633836861e-14</v>
+        <v>2.220281995609894e-14</v>
       </c>
       <c r="G15" t="n">
-        <v>5.915695403557982e-05</v>
+        <v>6.993202807039626e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>0.003325158296980558</v>
+        <v>0.001496046714720003</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01414292982267424</v>
+        <v>0.9912893018544873</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9509037700011296</v>
+        <v>0.003625988206422762</v>
       </c>
       <c r="K15" t="n">
-        <v>5.146384473895104e-05</v>
+        <v>9.571903132893117e-06</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0005637839873144682</v>
+        <v>1.415393332460995e-09</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0008293497133814511</v>
+        <v>0.0005173799749705522</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9509037700011296</v>
+        <v>0.9912893018544873</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>g__Prevotellamassilia</t>
+          <t>g__Prevotella</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>g__Prevotellamassilia</t>
+          <t>g__Prevotella</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4651.fa</t>
+          <t>even_MAG-GUT51559.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.891602527880939e-06</v>
+        <v>1.7124646097683e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01713157191373513</v>
+        <v>0.0003889527072699064</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001908696972799006</v>
+        <v>0.0006807455111057963</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0005715053882032207</v>
+        <v>0.004034760482075908</v>
       </c>
       <c r="F16" t="n">
-        <v>2.221248572859986e-14</v>
+        <v>2.220166460727164e-14</v>
       </c>
       <c r="G16" t="n">
-        <v>9.539739505294178e-05</v>
+        <v>9.840334643767999e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.000471677003713717</v>
+        <v>0.008109725175092564</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0282888583663271</v>
+        <v>0.9846703941543106</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9481721241726622</v>
+        <v>0.001491157091899416</v>
       </c>
       <c r="K16" t="n">
-        <v>4.213439385401213e-06</v>
+        <v>6.961809183693126e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0008144167748887588</v>
+        <v>4.509534182468698e-09</v>
       </c>
       <c r="M16" t="n">
-        <v>0.002533646970682562</v>
+        <v>0.0005276772961109463</v>
       </c>
       <c r="N16" t="n">
-        <v>0.9481721241726622</v>
+        <v>0.9846703941543106</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>g__Prevotellamassilia</t>
+          <t>g__Prevotella</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>g__Prevotellamassilia</t>
+          <t>g__Prevotella</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50483.fa</t>
+          <t>even_MAG-GUT5249.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0001881662712895842</v>
+        <v>1.769971636625195e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04616494412989321</v>
+        <v>0.0002180374789904896</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0002011256662533338</v>
+        <v>1.904305446895453e-05</v>
       </c>
       <c r="E17" t="n">
-        <v>0.007120079625178061</v>
+        <v>0.0003379931970385626</v>
       </c>
       <c r="F17" t="n">
-        <v>3.710584659484148e-14</v>
+        <v>2.220354888747277e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>2.506357939400195e-05</v>
+        <v>6.659218516863248e-09</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02625340172125082</v>
+        <v>0.005454114616108436</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8566400956977521</v>
+        <v>0.9862985290131485</v>
       </c>
       <c r="J17" t="n">
-        <v>0.04549956790103245</v>
+        <v>0.0001138411317240711</v>
       </c>
       <c r="K17" t="n">
-        <v>2.959714007040511e-06</v>
+        <v>4.641737179172732e-11</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0004779339405231401</v>
+        <v>2.572811420551673e-10</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01742666175338924</v>
+        <v>0.007556664573944942</v>
       </c>
       <c r="N17" t="n">
-        <v>0.8566400956977521</v>
+        <v>0.9862985290131485</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1415,47 +1415,47 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51557.fa</t>
+          <t>even_MAG-GUT53689.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.011172622024559e-05</v>
+        <v>1.177818315702799e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0006202409463136535</v>
+        <v>0.0004221399106309881</v>
       </c>
       <c r="D18" t="n">
-        <v>0.000877459003814334</v>
+        <v>9.277352829475485e-05</v>
       </c>
       <c r="E18" t="n">
-        <v>0.001536905051695777</v>
+        <v>0.002742343355487888</v>
       </c>
       <c r="F18" t="n">
-        <v>2.220281995609894e-14</v>
+        <v>2.220399225607613e-14</v>
       </c>
       <c r="G18" t="n">
-        <v>6.993202807039626e-06</v>
+        <v>5.963284308770829e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001496046714720003</v>
+        <v>0.02650636942987178</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9912893018544873</v>
+        <v>0.9625452129632389</v>
       </c>
       <c r="J18" t="n">
-        <v>0.003625988206422762</v>
+        <v>0.0005552208308569355</v>
       </c>
       <c r="K18" t="n">
-        <v>9.571903132893117e-06</v>
+        <v>2.95888600704378e-06</v>
       </c>
       <c r="L18" t="n">
-        <v>1.415393332460995e-09</v>
+        <v>0.0001108324624427389</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0005173799749705522</v>
+        <v>0.007004407165680943</v>
       </c>
       <c r="N18" t="n">
-        <v>0.9912893018544873</v>
+        <v>0.9625452129632389</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1471,47 +1471,47 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51559.fa</t>
+          <t>even_MAG-GUT54574.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.7124646097683e-05</v>
+        <v>2.56449478052545e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0003889527072699064</v>
+        <v>0.003861552513054752</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0006807455111057963</v>
+        <v>0.0004846474780251569</v>
       </c>
       <c r="E19" t="n">
-        <v>0.004034760482075908</v>
+        <v>0.008442779223070797</v>
       </c>
       <c r="F19" t="n">
-        <v>2.220166460727164e-14</v>
+        <v>2.220595471116686e-14</v>
       </c>
       <c r="G19" t="n">
-        <v>9.840334643767999e-06</v>
+        <v>0.0001067734770345854</v>
       </c>
       <c r="H19" t="n">
-        <v>0.008109725175092564</v>
+        <v>0.004953704502932963</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9846703941543106</v>
+        <v>0.9768042261468562</v>
       </c>
       <c r="J19" t="n">
-        <v>0.001491157091899416</v>
+        <v>0.003975954857682976</v>
       </c>
       <c r="K19" t="n">
-        <v>6.961809183693126e-05</v>
+        <v>3.657551757964729e-06</v>
       </c>
       <c r="L19" t="n">
-        <v>4.509534182468698e-09</v>
+        <v>3.825117245161277e-06</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0005276772961109463</v>
+        <v>0.001360314637536677</v>
       </c>
       <c r="N19" t="n">
-        <v>0.9846703941543106</v>
+        <v>0.9768042261468562</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1527,47 +1527,47 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5249.fa</t>
+          <t>even_MAG-GUT55210.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.769971636625195e-06</v>
+        <v>9.12151084571391e-07</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0002180374789904896</v>
+        <v>0.0009923148383604993</v>
       </c>
       <c r="D20" t="n">
-        <v>1.904305446895453e-05</v>
+        <v>4.150262045956359e-06</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0003379931970385626</v>
+        <v>0.0002241453130532256</v>
       </c>
       <c r="F20" t="n">
-        <v>2.220354888747277e-14</v>
+        <v>2.220275970961308e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>6.659218516863248e-09</v>
+        <v>3.377827604651341e-08</v>
       </c>
       <c r="H20" t="n">
-        <v>0.005454114616108436</v>
+        <v>0.00503072504696562</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9862985290131485</v>
+        <v>0.9909388332459016</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0001138411317240711</v>
+        <v>0.0002639998342446946</v>
       </c>
       <c r="K20" t="n">
-        <v>4.641737179172732e-11</v>
+        <v>2.10568967233078e-09</v>
       </c>
       <c r="L20" t="n">
-        <v>2.572811420551673e-10</v>
+        <v>1.392144136552965e-09</v>
       </c>
       <c r="M20" t="n">
-        <v>0.007556664573944942</v>
+        <v>0.002544882032211835</v>
       </c>
       <c r="N20" t="n">
-        <v>0.9862985290131485</v>
+        <v>0.9909388332459016</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1583,47 +1583,47 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT53689.fa</t>
+          <t>even_MAG-GUT57729.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.177818315702799e-05</v>
+        <v>0.0002740037334024884</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0004221399106309881</v>
+        <v>0.04753926087947582</v>
       </c>
       <c r="D21" t="n">
-        <v>9.277352829475485e-05</v>
+        <v>0.0008118395026990896</v>
       </c>
       <c r="E21" t="n">
-        <v>0.002742343355487888</v>
+        <v>0.0002238261970106586</v>
       </c>
       <c r="F21" t="n">
-        <v>2.220399225607613e-14</v>
+        <v>2.219622844058367e-14</v>
       </c>
       <c r="G21" t="n">
-        <v>5.963284308770829e-06</v>
+        <v>4.290005619335733e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.02650636942987178</v>
+        <v>0.001267471651260989</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9625452129632389</v>
+        <v>0.9468505793185643</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0005552208308569355</v>
+        <v>0.00198659747632291</v>
       </c>
       <c r="K21" t="n">
-        <v>2.95888600704378e-06</v>
+        <v>2.29454253454391e-06</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0001108324624427389</v>
+        <v>2.512664386631255e-08</v>
       </c>
       <c r="M21" t="n">
-        <v>0.007004407165680943</v>
+        <v>0.001001201515869662</v>
       </c>
       <c r="N21" t="n">
-        <v>0.9625452129632389</v>
+        <v>0.9468505793185643</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1639,47 +1639,47 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT54574.fa</t>
+          <t>even_MAG-GUT5848.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.56449478052545e-06</v>
+        <v>7.009549767791569e-06</v>
       </c>
       <c r="C22" t="n">
-        <v>0.003861552513054752</v>
+        <v>0.002322249578436505</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0004846474780251569</v>
+        <v>0.0003228436496847019</v>
       </c>
       <c r="E22" t="n">
-        <v>0.008442779223070797</v>
+        <v>0.005072050031458798</v>
       </c>
       <c r="F22" t="n">
-        <v>2.220595471116686e-14</v>
+        <v>2.220331487267468e-14</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0001067734770345854</v>
+        <v>5.067807212562166e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>0.004953704502932963</v>
+        <v>0.003288662462669888</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9768042261468562</v>
+        <v>0.9865340066972732</v>
       </c>
       <c r="J22" t="n">
-        <v>0.003975954857682976</v>
+        <v>0.001594879826450988</v>
       </c>
       <c r="K22" t="n">
-        <v>3.657551757964729e-06</v>
+        <v>8.031046935507372e-06</v>
       </c>
       <c r="L22" t="n">
-        <v>3.825117245161277e-06</v>
+        <v>4.123587289511103e-08</v>
       </c>
       <c r="M22" t="n">
-        <v>0.001360314637536677</v>
+        <v>0.0008451581142148811</v>
       </c>
       <c r="N22" t="n">
-        <v>0.9768042261468562</v>
+        <v>0.9865340066972732</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1695,103 +1695,103 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55210.fa</t>
+          <t>even_MAG-GUT59149.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>9.12151084571391e-07</v>
+        <v>0.01378466784341438</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0009923148383604993</v>
+        <v>0.03236296631632805</v>
       </c>
       <c r="D23" t="n">
-        <v>4.150262045956359e-06</v>
+        <v>0.01909137837186943</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0002241453130532256</v>
+        <v>0.02243477054122066</v>
       </c>
       <c r="F23" t="n">
-        <v>2.220275970961308e-14</v>
+        <v>0.4394723247021675</v>
       </c>
       <c r="G23" t="n">
-        <v>3.377827604651341e-08</v>
+        <v>0.01715399132235001</v>
       </c>
       <c r="H23" t="n">
-        <v>0.00503072504696562</v>
+        <v>0.01682841189366697</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9909388332459016</v>
+        <v>0.01938559542998726</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0002639998342446946</v>
+        <v>0.3744196304724476</v>
       </c>
       <c r="K23" t="n">
-        <v>2.10568967233078e-09</v>
+        <v>0.01337801526428121</v>
       </c>
       <c r="L23" t="n">
-        <v>1.392144136552965e-09</v>
+        <v>0.01367230561062918</v>
       </c>
       <c r="M23" t="n">
-        <v>0.002544882032211835</v>
+        <v>0.01801594223163804</v>
       </c>
       <c r="N23" t="n">
-        <v>0.9909388332459016</v>
+        <v>0.4394723247021675</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>g__Prevotella</t>
+          <t>g__F0040</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>g__Prevotella</t>
+          <t>g__F0040</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57729.fa</t>
+          <t>even_MAG-GUT63164.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0002740037334024884</v>
+        <v>0.000337090017450144</v>
       </c>
       <c r="C24" t="n">
-        <v>0.04753926087947582</v>
+        <v>0.005029807119318834</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0008118395026990896</v>
+        <v>0.01957533280247495</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0002238261970106586</v>
+        <v>0.00445569545921552</v>
       </c>
       <c r="F24" t="n">
-        <v>2.219622844058367e-14</v>
+        <v>4.384450420309943e-14</v>
       </c>
       <c r="G24" t="n">
-        <v>4.290005619335733e-05</v>
+        <v>3.363232389702398e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001267471651260989</v>
+        <v>0.006632617750933999</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9468505793185643</v>
+        <v>0.9456106350483802</v>
       </c>
       <c r="J24" t="n">
-        <v>0.00198659747632291</v>
+        <v>0.01388609067740171</v>
       </c>
       <c r="K24" t="n">
-        <v>2.29454253454391e-06</v>
+        <v>0.003065791096431411</v>
       </c>
       <c r="L24" t="n">
-        <v>2.512664386631255e-08</v>
+        <v>6.767870166536772e-09</v>
       </c>
       <c r="M24" t="n">
-        <v>0.001001201515869662</v>
+        <v>0.001373300936582261</v>
       </c>
       <c r="N24" t="n">
-        <v>0.9468505793185643</v>
+        <v>0.9456106350483802</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -1807,47 +1807,47 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5848.fa</t>
+          <t>even_MAG-GUT6384.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.009549767791569e-06</v>
+        <v>4.192738085528154e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>0.002322249578436505</v>
+        <v>0.0002950661640681513</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0003228436496847019</v>
+        <v>0.0008833065686751379</v>
       </c>
       <c r="E25" t="n">
-        <v>0.005072050031458798</v>
+        <v>0.0006100592231870591</v>
       </c>
       <c r="F25" t="n">
-        <v>2.220331487267468e-14</v>
+        <v>2.220160079094154e-14</v>
       </c>
       <c r="G25" t="n">
-        <v>5.067807212562166e-06</v>
+        <v>4.047287490047764e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>0.003288662462669888</v>
+        <v>0.003277673842294842</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9865340066972732</v>
+        <v>0.9934896410206263</v>
       </c>
       <c r="J25" t="n">
-        <v>0.001594879826450988</v>
+        <v>0.0008657547634041763</v>
       </c>
       <c r="K25" t="n">
-        <v>8.031046935507372e-06</v>
+        <v>1.09404032319123e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>4.123587289511103e-08</v>
+        <v>6.989855256512077e-10</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0008451581142148811</v>
+        <v>0.0005215826471592625</v>
       </c>
       <c r="N25" t="n">
-        <v>0.9865340066972732</v>
+        <v>0.9934896410206263</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -1863,103 +1863,103 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59149.fa</t>
+          <t>even_MAG-GUT6445.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01378466784341438</v>
+        <v>5.070922281467208e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>0.03236296631632805</v>
+        <v>0.0004468169472982663</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01909137837186943</v>
+        <v>0.002923763003915251</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02243477054122066</v>
+        <v>0.0004548095817698754</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4394723247021675</v>
+        <v>2.220012888728637e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01715399132235001</v>
+        <v>2.686550898579481e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01682841189366697</v>
+        <v>0.00444265501296571</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01938559542998726</v>
+        <v>0.9895152504554644</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3744196304724476</v>
+        <v>0.001498318466820717</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01337801526428121</v>
+        <v>8.147946450107319e-06</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01367230561062918</v>
+        <v>9.351646034122453e-10</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01801594223163804</v>
+        <v>0.0006568418764155619</v>
       </c>
       <c r="N26" t="n">
-        <v>0.4394723247021675</v>
+        <v>0.9895152504554644</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>g__F0040</t>
+          <t>g__Prevotella</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>g__F0040</t>
+          <t>g__Prevotella</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63164.fa</t>
+          <t>even_MAG-GUT6489.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.000337090017450144</v>
+        <v>3.520298958929735e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>0.005029807119318834</v>
+        <v>0.0001898853300058478</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01957533280247495</v>
+        <v>0.0004946595017176871</v>
       </c>
       <c r="E27" t="n">
-        <v>0.00445569545921552</v>
+        <v>0.002207831578930817</v>
       </c>
       <c r="F27" t="n">
-        <v>4.384450420309943e-14</v>
+        <v>2.220282547368711e-14</v>
       </c>
       <c r="G27" t="n">
-        <v>3.363232389702398e-05</v>
+        <v>1.867309651141473e-05</v>
       </c>
       <c r="H27" t="n">
-        <v>0.006632617750933999</v>
+        <v>0.005183479915942197</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9456106350483802</v>
+        <v>0.9906186123807853</v>
       </c>
       <c r="J27" t="n">
-        <v>0.01388609067740171</v>
+        <v>0.0006046457041954805</v>
       </c>
       <c r="K27" t="n">
-        <v>0.003065791096431411</v>
+        <v>1.243738008167512e-06</v>
       </c>
       <c r="L27" t="n">
-        <v>6.767870166536772e-09</v>
+        <v>6.058787940217381e-10</v>
       </c>
       <c r="M27" t="n">
-        <v>0.001373300936582261</v>
+        <v>0.000645765158412582</v>
       </c>
       <c r="N27" t="n">
-        <v>0.9456106350483802</v>
+        <v>0.9906186123807853</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -1975,215 +1975,215 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6384.fa</t>
+          <t>even_MAG-GUT67224.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4.192738085528154e-05</v>
+        <v>0.0134774629568767</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0002950661640681513</v>
+        <v>0.022064170436435</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0008833065686751379</v>
+        <v>0.02970182235916484</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0006100592231870591</v>
+        <v>0.01485332235310964</v>
       </c>
       <c r="F28" t="n">
-        <v>2.220160079094154e-14</v>
+        <v>0.1780302164910953</v>
       </c>
       <c r="G28" t="n">
-        <v>4.047287490047764e-06</v>
+        <v>0.02297837691707138</v>
       </c>
       <c r="H28" t="n">
-        <v>0.003277673842294842</v>
+        <v>0.0141052363044456</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9934896410206263</v>
+        <v>0.02031661090417586</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0008657547634041763</v>
+        <v>0.6292281479518633</v>
       </c>
       <c r="K28" t="n">
-        <v>1.09404032319123e-05</v>
+        <v>0.01250726379339476</v>
       </c>
       <c r="L28" t="n">
-        <v>6.989855256512077e-10</v>
+        <v>0.02409739381793952</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0005215826471592625</v>
+        <v>0.01863997571442799</v>
       </c>
       <c r="N28" t="n">
-        <v>0.9934896410206263</v>
+        <v>0.6292281479518633</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>g__Prevotella</t>
+          <t>g__Prevotellamassilia</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>g__Prevotella</t>
+          <t>g__Prevotellamassilia(reject)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6445.fa</t>
+          <t>even_MAG-GUT68785.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5.070922281467208e-05</v>
+        <v>6.524885280979196e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0004468169472982663</v>
+        <v>0.109151127348189</v>
       </c>
       <c r="D29" t="n">
-        <v>0.002923763003915251</v>
+        <v>0.00019375142730831</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0004548095817698754</v>
+        <v>0.002297846878988098</v>
       </c>
       <c r="F29" t="n">
-        <v>2.220012888728637e-14</v>
+        <v>3.794522987314987e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>2.686550898579481e-06</v>
+        <v>0.000104034289335721</v>
       </c>
       <c r="H29" t="n">
-        <v>0.00444265501296571</v>
+        <v>0.8149663922574969</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9895152504554644</v>
+        <v>0.06104985159169935</v>
       </c>
       <c r="J29" t="n">
-        <v>0.001498318466820717</v>
+        <v>0.008472067416555889</v>
       </c>
       <c r="K29" t="n">
-        <v>8.147946450107319e-06</v>
+        <v>3.730518917370355e-05</v>
       </c>
       <c r="L29" t="n">
-        <v>9.351646034122453e-10</v>
+        <v>8.053120739704683e-07</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0006568418764155619</v>
+        <v>0.003661569436331306</v>
       </c>
       <c r="N29" t="n">
-        <v>0.9895152504554644</v>
+        <v>0.8149663922574969</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>g__Prevotella</t>
+          <t>g__Phocaeicola</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>g__Prevotella</t>
+          <t>g__Phocaeicola</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6489.fa</t>
+          <t>even_MAG-GUT69465.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3.520298958929735e-05</v>
+        <v>0.0001443018876015062</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0001898853300058478</v>
+        <v>0.6228963595220941</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0004946595017176871</v>
+        <v>0.02187044143015988</v>
       </c>
       <c r="E30" t="n">
-        <v>0.002207831578930817</v>
+        <v>0.0005598947623435207</v>
       </c>
       <c r="F30" t="n">
-        <v>2.220282547368711e-14</v>
+        <v>2.226420455482995e-14</v>
       </c>
       <c r="G30" t="n">
-        <v>1.867309651141473e-05</v>
+        <v>0.0008468992228140354</v>
       </c>
       <c r="H30" t="n">
-        <v>0.005183479915942197</v>
+        <v>0.002337517532966517</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9906186123807853</v>
+        <v>0.05077191934177989</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0006046457041954805</v>
+        <v>0.2998378497166026</v>
       </c>
       <c r="K30" t="n">
-        <v>1.243738008167512e-06</v>
+        <v>0.0004953424548792057</v>
       </c>
       <c r="L30" t="n">
-        <v>6.058787940217381e-10</v>
+        <v>7.2125592923363e-07</v>
       </c>
       <c r="M30" t="n">
-        <v>0.000645765158412582</v>
+        <v>0.0002387528728074601</v>
       </c>
       <c r="N30" t="n">
-        <v>0.9906186123807853</v>
+        <v>0.6228963595220941</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>g__Prevotella</t>
+          <t>g__Bacteroides</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>g__Prevotella</t>
+          <t>g__Bacteroides</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67224.fa</t>
+          <t>even_MAG-GUT6955.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0134774629568767</v>
+        <v>1.077507840135645e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>0.022064170436435</v>
+        <v>0.001392240820566322</v>
       </c>
       <c r="D31" t="n">
-        <v>0.02970182235916484</v>
+        <v>0.0002529398629990102</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01485332235310964</v>
+        <v>0.0001992771713594456</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1780302164910953</v>
+        <v>2.220350273184187e-14</v>
       </c>
       <c r="G31" t="n">
-        <v>0.02297837691707138</v>
+        <v>0.0002330100483871616</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0141052363044456</v>
+        <v>0.002585642110526336</v>
       </c>
       <c r="I31" t="n">
-        <v>0.02031661090417586</v>
+        <v>0.002133353423366723</v>
       </c>
       <c r="J31" t="n">
-        <v>0.6292281479518633</v>
+        <v>0.9826706362282867</v>
       </c>
       <c r="K31" t="n">
-        <v>0.01250726379339476</v>
+        <v>6.560712145921452e-06</v>
       </c>
       <c r="L31" t="n">
-        <v>0.02409739381793952</v>
+        <v>0.01039425479032377</v>
       </c>
       <c r="M31" t="n">
-        <v>0.01863997571442799</v>
+        <v>0.0001213097536152148</v>
       </c>
       <c r="N31" t="n">
-        <v>0.6292281479518633</v>
+        <v>0.9826706362282867</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2192,511 +2192,175 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>g__Prevotellamassilia(reject)</t>
+          <t>g__Prevotellamassilia</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68785.fa</t>
+          <t>even_MAG-GUT6968.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.524885280979196e-05</v>
+        <v>1.723021206141598e-06</v>
       </c>
       <c r="C32" t="n">
-        <v>0.109151127348189</v>
+        <v>0.0001882146809759742</v>
       </c>
       <c r="D32" t="n">
-        <v>0.00019375142730831</v>
+        <v>5.058207637909951e-05</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002297846878988098</v>
+        <v>6.04434119454154e-05</v>
       </c>
       <c r="F32" t="n">
-        <v>3.794522987314987e-14</v>
+        <v>2.219999657165593e-14</v>
       </c>
       <c r="G32" t="n">
-        <v>0.000104034289335721</v>
+        <v>0.0001030055246447405</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8149663922574969</v>
+        <v>0.0005047293640360339</v>
       </c>
       <c r="I32" t="n">
-        <v>0.06104985159169935</v>
+        <v>0.003256012970982327</v>
       </c>
       <c r="J32" t="n">
-        <v>0.008472067416555889</v>
+        <v>0.9740574528337961</v>
       </c>
       <c r="K32" t="n">
-        <v>3.730518917370355e-05</v>
+        <v>4.802465439236789e-08</v>
       </c>
       <c r="L32" t="n">
-        <v>8.053120739704683e-07</v>
+        <v>0.02159300892768897</v>
       </c>
       <c r="M32" t="n">
-        <v>0.003661569436331306</v>
+        <v>0.0001847791636687054</v>
       </c>
       <c r="N32" t="n">
-        <v>0.8149663922574969</v>
+        <v>0.9740574528337961</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>g__Phocaeicola</t>
+          <t>g__Prevotellamassilia</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>g__Phocaeicola</t>
+          <t>g__Prevotellamassilia</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69465.fa</t>
+          <t>even_MAG-GUT74916.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.0001443018876015062</v>
+        <v>0.01197925300973474</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6228963595220941</v>
+        <v>0.01875489826288924</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02187044143015988</v>
+        <v>0.01930861723823293</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0005598947623435207</v>
+        <v>0.0172453326082313</v>
       </c>
       <c r="F33" t="n">
-        <v>2.226420455482995e-14</v>
+        <v>0.1314769143261577</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0008468992228140354</v>
+        <v>0.01885396217457031</v>
       </c>
       <c r="H33" t="n">
-        <v>0.002337517532966517</v>
+        <v>0.01587529175683083</v>
       </c>
       <c r="I33" t="n">
-        <v>0.05077191934177989</v>
+        <v>0.02807428662939365</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2998378497166026</v>
+        <v>0.6864226344565885</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0004953424548792057</v>
+        <v>0.01173345720768737</v>
       </c>
       <c r="L33" t="n">
-        <v>7.2125592923363e-07</v>
+        <v>0.01283611904844794</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0002387528728074601</v>
+        <v>0.02743923328123562</v>
       </c>
       <c r="N33" t="n">
-        <v>0.6228963595220941</v>
+        <v>0.6864226344565885</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>g__Bacteroides</t>
+          <t>g__Prevotellamassilia</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>g__Bacteroides</t>
+          <t>g__Prevotellamassilia</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6955.fa</t>
+          <t>even_MAG-GUT76034.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.077507840135645e-05</v>
+        <v>8.678363471698338e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>0.001392240820566322</v>
+        <v>0.0007091264164991209</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0002529398629990102</v>
+        <v>0.003443593894654254</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0001992771713594456</v>
+        <v>0.001016941065570757</v>
       </c>
       <c r="F34" t="n">
-        <v>2.220350273184187e-14</v>
+        <v>2.220253140411875e-14</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0002330100483871616</v>
+        <v>3.710835116410493e-05</v>
       </c>
       <c r="H34" t="n">
-        <v>0.002585642110526336</v>
+        <v>0.002914404920887897</v>
       </c>
       <c r="I34" t="n">
-        <v>0.002133353423366723</v>
+        <v>0.9867432020799366</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9826706362282867</v>
+        <v>0.004552054030019017</v>
       </c>
       <c r="K34" t="n">
-        <v>6.560712145921452e-06</v>
+        <v>0.0001216922781626708</v>
       </c>
       <c r="L34" t="n">
-        <v>0.01039425479032377</v>
+        <v>1.496990607507466e-09</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0001213097536152148</v>
+        <v>0.0003750918313757479</v>
       </c>
       <c r="N34" t="n">
-        <v>0.9826706362282867</v>
+        <v>0.9867432020799366</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>g__Prevotellamassilia</t>
+          <t>g__Prevotella</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>g__Prevotellamassilia</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT6968.fa</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>1.723021206141598e-06</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.0001882146809759742</v>
-      </c>
-      <c r="D35" t="n">
-        <v>5.058207637909951e-05</v>
-      </c>
-      <c r="E35" t="n">
-        <v>6.04434119454154e-05</v>
-      </c>
-      <c r="F35" t="n">
-        <v>2.219999657165593e-14</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.0001030055246447405</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.0005047293640360339</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.003256012970982327</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.9740574528337961</v>
-      </c>
-      <c r="K35" t="n">
-        <v>4.802465439236789e-08</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.02159300892768897</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.0001847791636687054</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0.9740574528337961</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>g__Prevotellamassilia</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>g__Prevotellamassilia</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT74916.fa</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0.01197925300973474</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.01875489826288924</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.01930861723823293</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.0172453326082313</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.1314769143261577</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.01885396217457031</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.01587529175683083</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.02807428662939365</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.6864226344565885</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.01173345720768737</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.01283611904844794</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.02743923328123562</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0.6864226344565885</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>g__Prevotellamassilia</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>g__Prevotellamassilia</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT76034.fa</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>8.678363471698338e-05</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.0007091264164991209</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.003443593894654254</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.001016941065570757</v>
-      </c>
-      <c r="F37" t="n">
-        <v>2.220253140411875e-14</v>
-      </c>
-      <c r="G37" t="n">
-        <v>3.710835116410493e-05</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.002914404920887897</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.9867432020799366</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.004552054030019017</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.0001216922781626708</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.496990607507466e-09</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.0003750918313757479</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0.9867432020799366</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>g__Prevotella</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>g__Prevotella</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT76518.fa</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0.01309750838687148</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.02366716184359611</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.02499523995998876</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.06916326545513454</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.654193081107284</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.01485462504218614</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.05752296094202693</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.08886346837737213</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.01450391847096945</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.01281625056659239</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.01281465110581335</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.01350786874216467</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0.654193081107284</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>g__F0040</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>g__F0040</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT78579.fa</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0.01305682392953753</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.02953378616860108</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.01661803474969323</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.0808431340000338</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.491996558556309</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.01408119306093959</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.07983375582176477</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.2208064104410887</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.01399109101126299</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.01287913920970402</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.01287899402846011</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.01348107902260513</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0.491996558556309</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>g__F0040</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>g__F0040</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT80232.fa</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.0001223575329078879</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.002010461961067975</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.0007714103486341314</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.0002191148024533594</v>
-      </c>
-      <c r="F40" t="n">
-        <v>2.220442595043014e-14</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.007771405890659469</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.00491429550610531</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.001287733979510729</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.9827872692468703</v>
-      </c>
-      <c r="K40" t="n">
-        <v>4.856347698396928e-05</v>
-      </c>
-      <c r="L40" t="n">
-        <v>6.020727778531111e-05</v>
-      </c>
-      <c r="M40" t="n">
-        <v>7.179976999231861e-06</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0.9827872692468703</v>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>g__Prevotellamassilia</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>g__Prevotellamassilia</t>
+          <t>g__Prevotella</t>
         </is>
       </c>
     </row>
